--- a/Networks/Parte3/Excel/Network4.xlsx
+++ b/Networks/Parte3/Excel/Network4.xlsx
@@ -464,16 +464,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.692696141034837</v>
+        <v>2.992399742986195</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.981421694579969</v>
+        <v>-3.115361607584886</v>
       </c>
       <c r="D2" t="n">
-        <v>2.606473545306315</v>
+        <v>6.509189091274481</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.352773179970761</v>
+        <v>-0.9074571694696207</v>
       </c>
     </row>
     <row r="3">
@@ -483,16 +483,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.104634428590521</v>
+        <v>-0.02530588994318195</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.634492154774063</v>
+        <v>-0.9781551949651406</v>
       </c>
       <c r="D3" t="n">
-        <v>1.924831656777036</v>
+        <v>2.463610012120194</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.870682865838424</v>
+        <v>3.023334633946135</v>
       </c>
     </row>
     <row r="4">
@@ -502,16 +502,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8391671901994309</v>
+        <v>3.693618807278793</v>
       </c>
       <c r="C4" t="n">
-        <v>10.07636414272658</v>
+        <v>1.995690265495933</v>
       </c>
       <c r="D4" t="n">
-        <v>1.333114625593549</v>
+        <v>-8.604889775144191</v>
       </c>
       <c r="E4" t="n">
-        <v>3.002403259637348</v>
+        <v>1.106936683455789</v>
       </c>
     </row>
     <row r="5">
@@ -521,16 +521,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.793703374807103</v>
+        <v>-2.016162561158827</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.280631267555885</v>
+        <v>2.555806862681343</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.478520029435497</v>
+        <v>0.9346310724968041</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.6312324368043293</v>
+        <v>-2.133463750928092</v>
       </c>
     </row>
     <row r="6">
@@ -540,16 +540,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.03456707318652038</v>
+        <v>2.526680110979042</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2254095808996405</v>
+        <v>2.229509010943596</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.973668721072564</v>
+        <v>4.379522965084463</v>
       </c>
       <c r="E6" t="n">
-        <v>-7.607605070719339</v>
+        <v>-3.468790923535672</v>
       </c>
     </row>
     <row r="7">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.186838016733122</v>
+        <v>2.286771883344559</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.871582886605812</v>
+        <v>-8.545326068087178</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.048627027346559</v>
+        <v>1.394992104309901</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7120689814875079</v>
+        <v>0.05783737800959484</v>
       </c>
     </row>
   </sheetData>
@@ -624,19 +624,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.196654421701552</v>
+        <v>-4.390035857830386</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.771678841018663</v>
+        <v>-5.985822531774705</v>
       </c>
       <c r="D2" t="n">
-        <v>-9.991760997161194</v>
+        <v>-3.737605885524056</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.850015372766483</v>
+        <v>-9.865883052535109</v>
       </c>
       <c r="F2" t="n">
-        <v>-11.0466758865011</v>
+        <v>-4.598259568341395</v>
       </c>
     </row>
     <row r="3">
@@ -646,19 +646,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-10.63775492865029</v>
+        <v>6.331951722016104</v>
       </c>
       <c r="C3" t="n">
-        <v>11.94389023257338</v>
+        <v>-9.54714353361236</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.449707599045269</v>
+        <v>-0.3147100914771699</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.613208062470797</v>
+        <v>-3.687887333112108</v>
       </c>
       <c r="F3" t="n">
-        <v>6.219826963320113</v>
+        <v>7.473668636143406</v>
       </c>
     </row>
     <row r="4">
@@ -668,19 +668,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3.031782226881538</v>
+        <v>-9.054268163880936</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.01188243056363</v>
+        <v>5.224444448816967</v>
       </c>
       <c r="D4" t="n">
-        <v>5.905875169795247</v>
+        <v>-3.86142489380658</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.679189370433019</v>
+        <v>-5.718326167797028</v>
       </c>
       <c r="F4" t="n">
-        <v>10.41881746083978</v>
+        <v>8.125615136262052</v>
       </c>
     </row>
     <row r="5">
@@ -690,19 +690,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-12.42876663557063</v>
+        <v>3.630457069518193</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.130841817057899</v>
+        <v>6.79068419089165</v>
       </c>
       <c r="D5" t="n">
-        <v>1.44054080955653</v>
+        <v>-9.646607528009406</v>
       </c>
       <c r="E5" t="n">
-        <v>12.74843745523727</v>
+        <v>8.407713907826864</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5774037345521995</v>
+        <v>-8.216308862190841</v>
       </c>
     </row>
     <row r="6">
@@ -712,19 +712,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.421147024949746</v>
+        <v>-11.6578995476367</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.423551996654745</v>
+        <v>-6.476629873826448</v>
       </c>
       <c r="D6" t="n">
-        <v>7.1641970625013</v>
+        <v>7.934443770723268</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.600355185146271</v>
+        <v>9.748175293126748</v>
       </c>
       <c r="F6" t="n">
-        <v>-6.742985516644977</v>
+        <v>-8.236350070575366</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte3/Excel/Network4.xlsx
+++ b/Networks/Parte3/Excel/Network4.xlsx
@@ -464,16 +464,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.992399742986195</v>
+        <v>6.473123644325607</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.115361607584886</v>
+        <v>-4.607381193671313</v>
       </c>
       <c r="D2" t="n">
-        <v>6.509189091274481</v>
+        <v>-1.141886234607804</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.9074571694696207</v>
+        <v>3.606202155191703</v>
       </c>
     </row>
     <row r="3">
@@ -483,16 +483,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.02530588994318195</v>
+        <v>3.311868186720423</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.9781551949651406</v>
+        <v>-2.068866931281668</v>
       </c>
       <c r="D3" t="n">
-        <v>2.463610012120194</v>
+        <v>-1.253255737341218</v>
       </c>
       <c r="E3" t="n">
-        <v>3.023334633946135</v>
+        <v>1.278720260749817</v>
       </c>
     </row>
     <row r="4">
@@ -502,16 +502,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.693618807278793</v>
+        <v>-10.43802135758207</v>
       </c>
       <c r="C4" t="n">
-        <v>1.995690265495933</v>
+        <v>-3.538907799284799</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.604889775144191</v>
+        <v>1.460551027431167</v>
       </c>
       <c r="E4" t="n">
-        <v>1.106936683455789</v>
+        <v>-1.925301796362968</v>
       </c>
     </row>
     <row r="5">
@@ -521,16 +521,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.016162561158827</v>
+        <v>0.8198212490174183</v>
       </c>
       <c r="C5" t="n">
-        <v>2.555806862681343</v>
+        <v>2.678582464998535</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9346310724968041</v>
+        <v>-0.8722260191830133</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.133463750928092</v>
+        <v>-3.03262737927183</v>
       </c>
     </row>
     <row r="6">
@@ -540,16 +540,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.526680110979042</v>
+        <v>4.549684261512178</v>
       </c>
       <c r="C6" t="n">
-        <v>2.229509010943596</v>
+        <v>4.443183458040439</v>
       </c>
       <c r="D6" t="n">
-        <v>4.379522965084463</v>
+        <v>3.215193690146705</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.468790923535672</v>
+        <v>-1.609457440631691</v>
       </c>
     </row>
     <row r="7">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.286771883344559</v>
+        <v>0.6853265773749967</v>
       </c>
       <c r="C7" t="n">
-        <v>-8.545326068087178</v>
+        <v>1.118973986793525</v>
       </c>
       <c r="D7" t="n">
-        <v>1.394992104309901</v>
+        <v>0.6874921761912348</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05783737800959484</v>
+        <v>7.749149725933131</v>
       </c>
     </row>
   </sheetData>
@@ -624,19 +624,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.390035857830386</v>
+        <v>-18.99172214959324</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.985822531774705</v>
+        <v>-4.122332012459756</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.737605885524056</v>
+        <v>-0.7321956849236436</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.865883052535109</v>
+        <v>-11.03407452550561</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.598259568341395</v>
+        <v>1.180184025604254</v>
       </c>
     </row>
     <row r="3">
@@ -646,19 +646,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.331951722016104</v>
+        <v>1.629410162324189</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.54714353361236</v>
+        <v>7.225536175766389</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3147100914771699</v>
+        <v>-9.590779546743681</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.687887333112108</v>
+        <v>8.560315622877614</v>
       </c>
       <c r="F3" t="n">
-        <v>7.473668636143406</v>
+        <v>-3.690752232856454</v>
       </c>
     </row>
     <row r="4">
@@ -668,19 +668,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-9.054268163880936</v>
+        <v>7.237419701901674</v>
       </c>
       <c r="C4" t="n">
-        <v>5.224444448816967</v>
+        <v>7.835217450405891</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.86142489380658</v>
+        <v>-4.879155978740124</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.718326167797028</v>
+        <v>-9.563612158599508</v>
       </c>
       <c r="F4" t="n">
-        <v>8.125615136262052</v>
+        <v>-8.200205498644948</v>
       </c>
     </row>
     <row r="5">
@@ -690,19 +690,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.630457069518193</v>
+        <v>8.944480098602378</v>
       </c>
       <c r="C5" t="n">
-        <v>6.79068419089165</v>
+        <v>-11.25671029181228</v>
       </c>
       <c r="D5" t="n">
-        <v>-9.646607528009406</v>
+        <v>-8.71683329159104</v>
       </c>
       <c r="E5" t="n">
-        <v>8.407713907826864</v>
+        <v>-2.258608497314561</v>
       </c>
       <c r="F5" t="n">
-        <v>-8.216308862190841</v>
+        <v>11.08050166900075</v>
       </c>
     </row>
     <row r="6">
@@ -712,19 +712,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11.6578995476367</v>
+        <v>8.990569027750178</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.476629873826448</v>
+        <v>-9.528284903960067</v>
       </c>
       <c r="D6" t="n">
-        <v>7.934443770723268</v>
+        <v>5.179210161542684</v>
       </c>
       <c r="E6" t="n">
-        <v>9.748175293126748</v>
+        <v>7.285550227792794</v>
       </c>
       <c r="F6" t="n">
-        <v>-8.236350070575366</v>
+        <v>-7.886814118333672</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte3/Excel/Network4.xlsx
+++ b/Networks/Parte3/Excel/Network4.xlsx
@@ -464,16 +464,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.473123644325607</v>
+        <v>2.710414552841873</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.607381193671313</v>
+        <v>-6.967611845745264</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.141886234607804</v>
+        <v>-3.232015161653771</v>
       </c>
       <c r="E2" t="n">
-        <v>3.606202155191703</v>
+        <v>0.6959639033945078</v>
       </c>
     </row>
     <row r="3">
@@ -483,16 +483,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.311868186720423</v>
+        <v>0.9936839276299655</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.068866931281668</v>
+        <v>-2.331573919445411</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.253255737341218</v>
+        <v>-0.015962196094686</v>
       </c>
       <c r="E3" t="n">
-        <v>1.278720260749817</v>
+        <v>-2.8521167215372</v>
       </c>
     </row>
     <row r="4">
@@ -502,16 +502,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-10.43802135758207</v>
+        <v>-1.800909445894931</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.538907799284799</v>
+        <v>7.588510004132815</v>
       </c>
       <c r="D4" t="n">
-        <v>1.460551027431167</v>
+        <v>-3.593374157875106</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.925301796362968</v>
+        <v>-0.873878386533175</v>
       </c>
     </row>
     <row r="5">
@@ -521,16 +521,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8198212490174183</v>
+        <v>-2.037520918332929</v>
       </c>
       <c r="C5" t="n">
-        <v>2.678582464998535</v>
+        <v>-0.9609407368081898</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.8722260191830133</v>
+        <v>1.880234264584502</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.03262737927183</v>
+        <v>2.032255739862664</v>
       </c>
     </row>
     <row r="6">
@@ -540,16 +540,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.549684261512178</v>
+        <v>-1.61388071014635</v>
       </c>
       <c r="C6" t="n">
-        <v>4.443183458040439</v>
+        <v>-4.55701222553741</v>
       </c>
       <c r="D6" t="n">
-        <v>3.215193690146705</v>
+        <v>-1.879072701663114</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.609457440631691</v>
+        <v>3.475766272433202</v>
       </c>
     </row>
     <row r="7">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6853265773749967</v>
+        <v>8.212995385637752</v>
       </c>
       <c r="C7" t="n">
-        <v>1.118973986793525</v>
+        <v>-1.034218732134758</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6874921761912348</v>
+        <v>-2.150896656138157</v>
       </c>
       <c r="E7" t="n">
-        <v>7.749149725933131</v>
+        <v>-0.2280152780702612</v>
       </c>
     </row>
   </sheetData>
@@ -624,19 +624,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-18.99172214959324</v>
+        <v>-13.07292951148265</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.122332012459756</v>
+        <v>-7.65460442852086</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7321956849236436</v>
+        <v>-7.285234326769465</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.03407452550561</v>
+        <v>-0.5022714339949979</v>
       </c>
       <c r="F2" t="n">
-        <v>1.180184025604254</v>
+        <v>-1.426972253160261</v>
       </c>
     </row>
     <row r="3">
@@ -646,19 +646,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.629410162324189</v>
+        <v>8.32084431459246</v>
       </c>
       <c r="C3" t="n">
-        <v>7.225536175766389</v>
+        <v>-5.893337204155525</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.590779546743681</v>
+        <v>2.493093343700054</v>
       </c>
       <c r="E3" t="n">
-        <v>8.560315622877614</v>
+        <v>5.197984527053643</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.690752232856454</v>
+        <v>-9.445709669986247</v>
       </c>
     </row>
     <row r="4">
@@ -668,19 +668,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.237419701901674</v>
+        <v>-7.521668045330838</v>
       </c>
       <c r="C4" t="n">
-        <v>7.835217450405891</v>
+        <v>-6.879807855764168</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.879155978740124</v>
+        <v>8.600786199483148</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.563612158599508</v>
+        <v>-8.579649033198418</v>
       </c>
       <c r="F4" t="n">
-        <v>-8.200205498644948</v>
+        <v>3.910539923562327</v>
       </c>
     </row>
     <row r="5">
@@ -690,19 +690,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.944480098602378</v>
+        <v>-5.537477433565583</v>
       </c>
       <c r="C5" t="n">
-        <v>-11.25671029181228</v>
+        <v>9.335089519945868</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.71683329159104</v>
+        <v>-2.026545162572934</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.258608497314561</v>
+        <v>3.34043503336949</v>
       </c>
       <c r="F5" t="n">
-        <v>11.08050166900075</v>
+        <v>-9.848181963200842</v>
       </c>
     </row>
     <row r="6">
@@ -712,19 +712,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.990569027750178</v>
+        <v>9.960120352937682</v>
       </c>
       <c r="C6" t="n">
-        <v>-9.528284903960067</v>
+        <v>4.280186737206014</v>
       </c>
       <c r="D6" t="n">
-        <v>5.179210161542684</v>
+        <v>-10.94402635177073</v>
       </c>
       <c r="E6" t="n">
-        <v>7.285550227792794</v>
+        <v>-10.07663655629803</v>
       </c>
       <c r="F6" t="n">
-        <v>-7.886814118333672</v>
+        <v>5.731425863758195</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte3/Excel/Network4.xlsx
+++ b/Networks/Parte3/Excel/Network4.xlsx
@@ -464,16 +464,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.710414552841873</v>
+        <v>-4.072171871222555</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.967611845745264</v>
+        <v>-8.670785174811794</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.232015161653771</v>
+        <v>-1.45889724731158</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6959639033945078</v>
+        <v>3.592368819678708</v>
       </c>
     </row>
     <row r="3">
@@ -483,16 +483,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9936839276299655</v>
+        <v>-1.437424209417388</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.331573919445411</v>
+        <v>-2.729848430930387</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.015962196094686</v>
+        <v>-1.439438419614557</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.8521167215372</v>
+        <v>1.746985084067611</v>
       </c>
     </row>
     <row r="4">
@@ -502,16 +502,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.800909445894931</v>
+        <v>-4.330335562621634</v>
       </c>
       <c r="C4" t="n">
-        <v>7.588510004132815</v>
+        <v>8.172728619266813</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.593374157875106</v>
+        <v>1.244843975562981</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.873878386533175</v>
+        <v>-2.10006424343622</v>
       </c>
     </row>
     <row r="5">
@@ -521,16 +521,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.037520918332929</v>
+        <v>2.232486114250346</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9609407368081898</v>
+        <v>-0.8992039525888637</v>
       </c>
       <c r="D5" t="n">
-        <v>1.880234264584502</v>
+        <v>-0.7477647011036654</v>
       </c>
       <c r="E5" t="n">
-        <v>2.032255739862664</v>
+        <v>-3.233102461719949</v>
       </c>
     </row>
     <row r="6">
@@ -540,16 +540,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.61388071014635</v>
+        <v>2.967362062903506</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.55701222553741</v>
+        <v>-5.788525128429651</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.879072701663114</v>
+        <v>3.062927996034302</v>
       </c>
       <c r="E6" t="n">
-        <v>3.475766272433202</v>
+        <v>-2.143104742091968</v>
       </c>
     </row>
     <row r="7">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.212995385637752</v>
+        <v>0.1399808187949514</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.034218732134758</v>
+        <v>-0.5869834479577366</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.150896656138157</v>
+        <v>0.9302772084627584</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2280152780702612</v>
+        <v>7.206543998779834</v>
       </c>
     </row>
   </sheetData>
@@ -624,19 +624,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-13.07292951148265</v>
+        <v>-15.3251005650841</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.65460442852086</v>
+        <v>0.2147204893769506</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.285234326769465</v>
+        <v>-11.01661000811683</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5022714339949979</v>
+        <v>-1.039309771046578</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.426972253160261</v>
+        <v>0.4745177555307734</v>
       </c>
     </row>
     <row r="3">
@@ -646,19 +646,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.32084431459246</v>
+        <v>5.101917402969105</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.893337204155525</v>
+        <v>9.335444508167916</v>
       </c>
       <c r="D3" t="n">
-        <v>2.493093343700054</v>
+        <v>-6.142790574187227</v>
       </c>
       <c r="E3" t="n">
-        <v>5.197984527053643</v>
+        <v>-6.584404340445493</v>
       </c>
       <c r="F3" t="n">
-        <v>-9.445709669986247</v>
+        <v>-9.28423520033923</v>
       </c>
     </row>
     <row r="4">
@@ -668,19 +668,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-7.521668045330838</v>
+        <v>-4.719634936671806</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.879807855764168</v>
+        <v>-6.684705795183908</v>
       </c>
       <c r="D4" t="n">
-        <v>8.600786199483148</v>
+        <v>10.01923504110058</v>
       </c>
       <c r="E4" t="n">
-        <v>-8.579649033198418</v>
+        <v>-9.374111467761026</v>
       </c>
       <c r="F4" t="n">
-        <v>3.910539923562327</v>
+        <v>1.709578136882074</v>
       </c>
     </row>
     <row r="5">
@@ -690,19 +690,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-5.537477433565583</v>
+        <v>10.15944491586395</v>
       </c>
       <c r="C5" t="n">
-        <v>9.335089519945868</v>
+        <v>-9.916586944108111</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.026545162572934</v>
+        <v>-8.078926594891261</v>
       </c>
       <c r="E5" t="n">
-        <v>3.34043503336949</v>
+        <v>-7.828683213980202</v>
       </c>
       <c r="F5" t="n">
-        <v>-9.848181963200842</v>
+        <v>7.916993007091226</v>
       </c>
     </row>
     <row r="6">
@@ -712,19 +712,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.960120352937682</v>
+        <v>8.450296127014388</v>
       </c>
       <c r="C6" t="n">
-        <v>4.280186737206014</v>
+        <v>-8.679110283866637</v>
       </c>
       <c r="D6" t="n">
-        <v>-10.94402635177073</v>
+        <v>5.414968949804011</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.07663655629803</v>
+        <v>6.601693718153819</v>
       </c>
       <c r="F6" t="n">
-        <v>5.731425863758195</v>
+        <v>-9.090553166238742</v>
       </c>
     </row>
   </sheetData>
